--- a/biology/Zoologie/Archaeoprepona_demophoon/Archaeoprepona_demophoon.xlsx
+++ b/biology/Zoologie/Archaeoprepona_demophoon/Archaeoprepona_demophoon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,122 +518,272 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Archaeoprepona demophoon a été décrit par Jacob Hübner en 1814 sous le nom de Potamis demophoon.
-Synonyme  :Prepona demophoon[1].
-Sous-espèces
-Archaeoprepona demophoon demophoon; présent au Paraguay et au Brésil.
+Synonyme  :Prepona demophoon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Archaeoprepona_demophoon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeoprepona_demophoon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Archaeoprepona demophoon demophoon; présent au Paraguay et au Brésil.
 Archaeoprepona demophoon andicola (Fruhstorfer, 1904); présent en Colombie, en Équateur, en Bolivie et au Brésil.
-Archaeoprepona demophoon antimache (Hübner, [1819]); présent en Amérique Centrale, au Paraguay, au Brésil.
+Archaeoprepona demophoon antimache (Hübner, ); présent en Amérique Centrale, au Paraguay, au Brésil.
 Archaeoprepona demophoon crassina (Fruhstorfer, 1904); présent à Cuba.
 Archaeoprepona demophoon gulina (Fruhstorfer, 1904); présent au Honduras.
 Archaeoprepona demophoon insulicola (Fruhstorfer, 1897); présent en République dominicaine et à Porto Rico.
-Archaeoprepona demophoon mexicana Llorente, Descimon &amp; Johnson, 1993; présent au Mexique[1].
-Noms vernaculaires
-Archaeoprepona demophoon se nomme Hübner's Shoemaker ou Two-spotted Prepona en anglais[2],[3].
+Archaeoprepona demophoon mexicana Llorente, Descimon &amp; Johnson, 1993; présent au Mexique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Archaeoprepona_demophoon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeoprepona_demophoon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archaeoprepona demophoon se nomme Hübner's Shoemaker ou Two-spotted Prepona en anglais,.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Archaeoprepona_demophoon</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Archaeoprepona_demophoon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Archaeoprepona_demophoon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeoprepona_demophoon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Archaeoprepona demophoon est un grand papillon d'une envergure d'environ 98 mm, aux ailes antérieures à bord costal bossu, bord externe concave et aux ailes postérieures à bord externe ondulé[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archaeoprepona demophoon est un grand papillon d'une envergure d'environ 98 mm, aux ailes antérieures à bord costal bossu, bord externe concave et aux ailes postérieures à bord externe ondulé.
 Le dessus est marron à noir suivant les sous-espèces avec une bande bleu barrant les ailes antérieures et les ailes postérieures.
 Le revers est gris clair nacré marbré de blanc nacré nacré.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Archaeoprepona_demophoon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Archaeoprepona_demophoon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Archaeoprepona_demophoon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeoprepona_demophoon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Nectandra, des Ocotea et Persea americana[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Nectandra, des Ocotea et Persea americana.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Archaeoprepona_demophoon</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Archaeoprepona_demophoon</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Archaeoprepona_demophoon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeoprepona_demophoon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Archaeoprepona demophon est présent à Cuba, en République dominicaine, à Porto Rico, au Mexique, au Honduras, au Costa Rica, en Colombie, en Équateur, en Bolivie, au Paraguay et au Brésil[1].
-Biotope
-Il réside en forêt tropicale et subtropicale à des altitudes comprise entre le niveau de la mer et 1500 mètres[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archaeoprepona demophon est présent à Cuba, en République dominicaine, à Porto Rico, au Mexique, au Honduras, au Costa Rica, en Colombie, en Équateur, en Bolivie, au Paraguay et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Archaeoprepona_demophoon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeoprepona_demophoon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en forêt tropicale et subtropicale à des altitudes comprise entre le niveau de la mer et 1500 mètres.
 Sur les autres projets Wikimedia :
 Archaeoprepona demophoon, sur Wikimedia CommonsArchaeoprepona demophoon, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Archaeoprepona_demophoon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeoprepona_demophoon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
